--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>3.773181</v>
       </c>
       <c r="O2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q2">
-        <v>130.0836075053683</v>
+        <v>148.4554274499307</v>
       </c>
       <c r="R2">
-        <v>1170.752467548315</v>
+        <v>1336.098847049376</v>
       </c>
       <c r="S2">
-        <v>0.09030659888922057</v>
+        <v>0.0536807708457203</v>
       </c>
       <c r="T2">
-        <v>0.09030659888922056</v>
+        <v>0.0536807708457203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H3">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N3">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q3">
-        <v>9.473204042718891</v>
+        <v>29.120104438656</v>
       </c>
       <c r="R3">
-        <v>85.25883638447002</v>
+        <v>262.080939947904</v>
       </c>
       <c r="S3">
-        <v>0.006576484570865339</v>
+        <v>0.01052969015836184</v>
       </c>
       <c r="T3">
-        <v>0.006576484570865338</v>
+        <v>0.01052969015836184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H4">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N4">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O4">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P4">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q4">
-        <v>218.4754364051856</v>
+        <v>559.72880350624</v>
       </c>
       <c r="R4">
-        <v>1966.27892764667</v>
+        <v>5037.55923155616</v>
       </c>
       <c r="S4">
-        <v>0.1516699450526562</v>
+        <v>0.2023952519142587</v>
       </c>
       <c r="T4">
-        <v>0.1516699450526562</v>
+        <v>0.2023952519142587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>648.391617</v>
       </c>
       <c r="I5">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J5">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,10 +747,10 @@
         <v>3.773181</v>
       </c>
       <c r="O5">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P5">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q5">
         <v>271.833214424853</v>
@@ -759,10 +759,10 @@
         <v>2446.498929823677</v>
       </c>
       <c r="S5">
-        <v>0.1887119640252875</v>
+        <v>0.09829358712208469</v>
       </c>
       <c r="T5">
-        <v>0.1887119640252874</v>
+        <v>0.09829358712208471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J6">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N6">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O6">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P6">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q6">
-        <v>19.795972415114</v>
+        <v>53.321133015612</v>
       </c>
       <c r="R6">
-        <v>178.163751736026</v>
+        <v>479.890197140508</v>
       </c>
       <c r="S6">
-        <v>0.01374275340911036</v>
+        <v>0.01928066606800623</v>
       </c>
       <c r="T6">
-        <v>0.01374275340911036</v>
+        <v>0.01928066606800623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N7">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O7">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P7">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q7">
-        <v>456.543920404754</v>
+        <v>1024.90614507573</v>
       </c>
       <c r="R7">
-        <v>4108.895283642786</v>
+        <v>9224.15530568157</v>
       </c>
       <c r="S7">
-        <v>0.3169417691126294</v>
+        <v>0.3706011484877276</v>
       </c>
       <c r="T7">
-        <v>0.3169417691126293</v>
+        <v>0.3706011484877276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H8">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I8">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J8">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>3.773181</v>
       </c>
       <c r="O8">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P8">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q8">
-        <v>31.384310860946</v>
+        <v>57.700052344604</v>
       </c>
       <c r="R8">
-        <v>282.458797748514</v>
+        <v>519.3004711014361</v>
       </c>
       <c r="S8">
-        <v>0.02178760588429327</v>
+        <v>0.02086406230409732</v>
       </c>
       <c r="T8">
-        <v>0.02178760588429326</v>
+        <v>0.02086406230409733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H9">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I9">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J9">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N9">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O9">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P9">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q9">
-        <v>2.285529946681333</v>
+        <v>11.318087720016</v>
       </c>
       <c r="R9">
-        <v>20.569769520132</v>
+        <v>101.862789480144</v>
       </c>
       <c r="S9">
-        <v>0.001586659842099898</v>
+        <v>0.004092566258750303</v>
       </c>
       <c r="T9">
-        <v>0.001586659842099898</v>
+        <v>0.004092566258750304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H10">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I10">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J10">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N10">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O10">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P10">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q10">
-        <v>52.70995433716133</v>
+        <v>217.54934673564</v>
       </c>
       <c r="R10">
-        <v>474.3895890344519</v>
+        <v>1957.94412062076</v>
       </c>
       <c r="S10">
-        <v>0.03659228703046785</v>
+        <v>0.07866480081161556</v>
       </c>
       <c r="T10">
-        <v>0.03659228703046784</v>
+        <v>0.07866480081161556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H11">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I11">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J11">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.773181</v>
       </c>
       <c r="O11">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P11">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q11">
-        <v>90.06246605027501</v>
+        <v>78.84643817479834</v>
       </c>
       <c r="R11">
-        <v>810.5621944524751</v>
+        <v>709.617943573185</v>
       </c>
       <c r="S11">
-        <v>0.06252313533233297</v>
+        <v>0.02851049404098145</v>
       </c>
       <c r="T11">
-        <v>0.06252313533233297</v>
+        <v>0.02851049404098145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H12">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I12">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J12">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N12">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O12">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P12">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q12">
-        <v>6.558705849616667</v>
+        <v>15.46603282686</v>
       </c>
       <c r="R12">
-        <v>59.02835264655</v>
+        <v>139.19429544174</v>
       </c>
       <c r="S12">
-        <v>0.004553182601191883</v>
+        <v>0.005592443323441773</v>
       </c>
       <c r="T12">
-        <v>0.004553182601191883</v>
+        <v>0.005592443323441774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H13">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I13">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J13">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N13">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O13">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P13">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q13">
-        <v>151.2599239166167</v>
+        <v>297.27860583065</v>
       </c>
       <c r="R13">
-        <v>1361.33931524955</v>
+        <v>2675.50745247585</v>
       </c>
       <c r="S13">
-        <v>0.1050076142498447</v>
+        <v>0.1074945186649542</v>
       </c>
       <c r="T13">
-        <v>0.1050076142498447</v>
+        <v>0.1074945186649542</v>
       </c>
     </row>
   </sheetData>
